--- a/ig/nr-test-log-model/StructureDefinition-log-personne-prise-charge.xlsx
+++ b/ig/nr-test-log-model/StructureDefinition-log-personne-prise-charge.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-14T08:58:47+00:00</t>
+    <t>2024-02-14T09:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-test-log-model/StructureDefinition-log-personne-prise-charge.xlsx
+++ b/ig/nr-test-log-model/StructureDefinition-log-personne-prise-charge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-14T09:17:54+00:00</t>
+    <t>2024-02-14T09:42:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,10 +260,13 @@
 </t>
   </si>
   <si>
-    <t>test</t>
+    <t>INS du patient</t>
   </si>
   <si>
     <t>log-personne-prise-charge.idPersonnePriseCharge</t>
+  </si>
+  <si>
+    <t>Identifiant personne prise en charge</t>
   </si>
   <si>
     <t>log-personne-prise-charge.adresseCorrespondance</t>
@@ -273,6 +276,9 @@
 </t>
   </si>
   <si>
+    <t>Adresse(s) de correspondance de la personne prise en charge.</t>
+  </si>
+  <si>
     <t>log-personne-prise-charge.telecommunication</t>
   </si>
   <si>
@@ -280,11 +286,17 @@
 </t>
   </si>
   <si>
+    <t>Adresse(s) de télécommunication de la personne prise en charge (numéro de téléphone, adresse email, etc.).</t>
+  </si>
+  <si>
     <t>log-personne-prise-charge.metadonnee</t>
   </si>
   <si>
     <t xml:space="preserve">Meta
 </t>
+  </si>
+  <si>
+    <t>Informations relatives à la gestion des classes et des données.</t>
   </si>
 </sst>
 </file>
@@ -986,10 +998,10 @@
         <v>80</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1060,10 +1072,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1086,13 +1098,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1143,7 +1155,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
@@ -1163,10 +1175,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1189,13 +1201,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1246,7 +1258,7 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -1266,10 +1278,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1292,13 +1304,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1349,7 +1361,7 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>

--- a/ig/nr-test-log-model/StructureDefinition-log-personne-prise-charge.xlsx
+++ b/ig/nr-test-log-model/StructureDefinition-log-personne-prise-charge.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-14T09:42:21+00:00</t>
+    <t>2024-02-14T17:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-test-log-model/StructureDefinition-log-personne-prise-charge.xlsx
+++ b/ig/nr-test-log-model/StructureDefinition-log-personne-prise-charge.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-14T17:54:26+00:00</t>
+    <t>2024-02-15T15:07:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
